--- a/Dashboard_vendas.xlsx
+++ b/Dashboard_vendas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Dashboard_Execel_Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180294CC-B6D5-4F70-8CC9-0E0896D6DDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB74E3E-5C73-49D3-BAD7-C6B33FC70398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{55A8B278-183D-4BD7-99BB-5CAD9EA099C4}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{55A8B278-183D-4BD7-99BB-5CAD9EA099C4}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -379,474 +379,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Dashboard_vendas.xlsx]Análise!Tabela dinâmica6</c:name>
-    <c:fmtId val="3"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Análise!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Análise!$D$4:$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>Geladeira</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Notebook</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Televisão</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Máquina de lavar louça</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Micro-ondas</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fogão</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ventilador</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Máquina de lavar roupa</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Forno elétrico</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Cafeteira</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Torradeira</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Aspirador de pó</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Secador de cabelo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Liquidificador</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Ferro de passar roupa</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Análise!$E$4:$E$19</c:f>
-              <c:numCache>
-                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>348821.48000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165250.50999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126077.64000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>67754.400000000009</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54663.209999999985</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45272.470000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38563.499999999985</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35007.929999999993</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16482.510000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13451.020000000008</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7454.9500000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5237.5499999999993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3632.43</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3131.9900000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3126.22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8DE7-43CA-9266-12772DD9CBDE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="679350240"/>
-        <c:axId val="679351680"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="679350240"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="679351680"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="679351680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="t"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="679350240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1476,6 +1008,1268 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard_vendas.xlsx]Análise!Tabela dinâmica6</c:name>
+    <c:fmtId val="9"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Faturamento por Produto</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="127000">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="&quot;R$&quot;\ #,\k" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Análise!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="127000">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="&quot;R$&quot;\ #,\k" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Análise!$D$4:$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Geladeira</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Notebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Televisão</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Máquina de lavar louça</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Micro-ondas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fogão</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ventilador</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Máquina de lavar roupa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Forno elétrico</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Cafeteira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Torradeira</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Aspirador de pó</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Secador de cabelo</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Liquidificador</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ferro de passar roupa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Análise!$E$4:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>348821.48000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165250.50999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126077.64000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67754.400000000009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54663.209999999985</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45272.470000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38563.499999999985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35007.929999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16482.510000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13451.020000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7454.9500000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5237.5499999999993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3632.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3131.9900000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3126.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1FC2-41E4-AA05-0B9DD4B93970}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="679350240"/>
+        <c:axId val="679351680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="679350240"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679351680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679351680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679350240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard_vendas.xlsx]Análise!Tabela dinâmica7</c:name>
+    <c:fmtId val="8"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Quantidade de Entregas por Estados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Análise!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Análise!$G$4:$G$30</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Tocantins</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sergipe</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>São Paulo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santa Catarina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Roraima</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rondônia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Rio Grande do Sul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rio Grande do Norte</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Rio de Janeiro</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Piauí</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Pernambuco</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Paraná</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Paraíba</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pará</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Minas Gerais</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Mato Grosso do Sul</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Mato Grosso</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Maranhão</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Goiás</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Espírito Santo</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Ceará</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Bahia</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Amazonas</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Amapá</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Alagoas</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Acre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Análise!$H$4:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31E3-4999-839E-9719B613C313}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="423925528"/>
+        <c:axId val="423925888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="423925528"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="423925888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="423925888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="423925528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="rnd" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1556,7 +2350,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2061,8 +3398,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2266,22 +3603,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2386,8 +3724,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2519,19 +3857,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2565,47 +3904,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>185206</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>115357</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>497415</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CFEBB9-EE4D-EE1F-8BC1-C37C2D778065}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3287,10 +4585,10 @@
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464343</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3312,6 +4610,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119591</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Gráfico 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D4E281-B924-4875-9D75-F9BDB4C3D98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>234156</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>223572</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>117738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91841FE-906C-4509-8B66-83A62D8D6192}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -15475,25 +16849,25 @@
     <dataField name="Contagem de STATUS ENTREGA" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="12">
@@ -15513,17 +16887,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -15540,7 +16914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="G3:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
@@ -16060,6 +17434,53 @@
   <dataFields count="1">
     <dataField name="Contagem de DESTINO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16073,7 +17494,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
@@ -16563,8 +17984,44 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="1">
+  <chartFormats count="5">
     <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17413,34 +18870,7 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="6" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -47644,8 +49074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1A3585-5829-4BEA-9324-C8BAF2A31307}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48224,7 +49654,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -48232,8 +49661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C1473B-4571-40D5-82DC-790682A30B55}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dashboard_vendas.xlsx
+++ b/Dashboard_vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Dashboard_Execel_Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB74E3E-5C73-49D3-BAD7-C6B33FC70398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A6A80-DFD4-47F9-91D0-D8E830B7A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{55A8B278-183D-4BD7-99BB-5CAD9EA099C4}"/>
   </bookViews>
@@ -17,11 +17,24 @@
     <sheet name="Análise" sheetId="2" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Meses__DATA_PEDIDO">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Meses__DATA_PEDIDO1">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="18" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="71">
   <si>
     <t>DATA PEDIDO</t>
   </si>
@@ -262,12 +275,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,11 +320,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="277">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -335,6 +361,777 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -635,7 +1432,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -723,7 +1520,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -904,7 +1701,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -961,10 +1758,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
     <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1"/>
+        <a:schemeClr val="accent1">
+          <a:alpha val="76000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -975,6 +1776,16 @@
         </a:prstClr>
       </a:outerShdw>
     </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d prstMaterial="matte">
+      <a:bevelT w="63500" h="63500" prst="artDeco"/>
+      <a:contourClr>
+        <a:srgbClr val="000000"/>
+      </a:contourClr>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -1234,7 +2045,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -1316,7 +2127,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1361,9 +2172,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Análise!$D$4:$D$19</c:f>
+              <c:f>Análise!$D$4:$D$15</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Geladeira</c:v>
                 </c:pt>
@@ -1374,39 +2185,27 @@
                   <c:v>Televisão</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Fogão</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Máquina de lavar louça</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Micro-ondas</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fogão</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ventilador</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Máquina de lavar roupa</c:v>
+                  <c:v>Cafeteira</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Forno elétrico</c:v>
+                  <c:v>Secador de cabelo</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Cafeteira</c:v>
+                  <c:v>Aspirador de pó</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Torradeira</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Aspirador de pó</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Secador de cabelo</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Liquidificador</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>Ferro de passar roupa</c:v>
                 </c:pt>
               </c:strCache>
@@ -1414,54 +2213,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Análise!$E$4:$E$19</c:f>
+              <c:f>Análise!$E$4:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>348821.48000000004</c:v>
+                  <c:v>30823.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>165250.50999999998</c:v>
+                  <c:v>19876.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126077.64000000001</c:v>
+                  <c:v>7583.72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67754.400000000009</c:v>
+                  <c:v>5909.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54663.209999999985</c:v>
+                  <c:v>4525.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45272.470000000008</c:v>
+                  <c:v>2977.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38563.499999999985</c:v>
+                  <c:v>2558.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35007.929999999993</c:v>
+                  <c:v>1974.0900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16482.510000000002</c:v>
+                  <c:v>1107.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13451.020000000008</c:v>
+                  <c:v>554.81999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7454.9500000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5237.5499999999993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3632.43</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3131.9900000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3126.22</c:v>
+                  <c:v>107.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1514,7 +2301,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1839,7 +2626,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -1912,7 +2699,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2170,7 +2957,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2270,6 +3057,853 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Dashboard_vendas.xlsx]Análise!Tabela dinâmica8</c:name>
+    <c:fmtId val="13"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Entregas no Prazo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> x Em Atraso</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Análise!$K$3:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENTREGA ATRASADA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Análise!$J$5:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Análise!$K$5:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B8A-4295-B6B1-FAF31077AECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Análise!$L$3:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ENTREGA NO PRAZO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Análise!$J$5:$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jul</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Análise!$L$5:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B8A-4295-B6B1-FAF31077AECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-60"/>
+        <c:axId val="598922176"/>
+        <c:axId val="598922536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598922176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598922536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598922536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="598922176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="40000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2351,6 +3985,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3903,6 +5577,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4316,7 +6493,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>250</a:t>
+            <a:t>25</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
             <a:solidFill>
@@ -4487,7 +6664,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>653</a:t>
+            <a:t>50</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
             <a:solidFill>
@@ -4585,10 +6762,10 @@
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>464343</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488156</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4617,16 +6794,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>119591</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66864</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>110558</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4655,16 +6832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>234156</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>43655</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>479084</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>169520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>223572</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>117738</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>517069</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4689,6 +6866,200 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5101</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3562057-9A97-4872-96FA-1C994E027480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>455840</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Meses (DATA PEDIDO)">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBAF795-8C62-4631-99CD-A7D2B1534086}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Meses (DATA PEDIDO)"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13926911" y="6842694"/>
+              <a:ext cx="1828801" cy="1823356"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="21" name="Meses (DATA PEDIDO) 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146EA176-AA8D-4ABE-A6EF-A2108914E0E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Meses (DATA PEDIDO) 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="762000" y="5403735"/>
+              <a:ext cx="952499" cy="3604193"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5538,7 +7909,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="754989392"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -16386,8 +18757,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A72C2BF1-7D22-4046-9295-8D27E1AC57FD}" name="Tabela dinâmica8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:L17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A72C2BF1-7D22-4046-9295-8D27E1AC57FD}" name="Tabela dinâmica8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="J3:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
       <items count="362">
@@ -16773,62 +19144,29 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="11"/>
   </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -16849,25 +19187,25 @@
     <dataField name="Contagem de STATUS ENTREGA" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="0">
+    <format dxfId="102">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="103">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="104">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="105">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="106">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="107">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="12">
@@ -16887,20 +19225,46 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="2">
+    <chartFormat chart="13" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16914,7 +19278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="G3:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
@@ -17434,43 +19798,7 @@
   <dataFields count="1">
     <dataField name="Contagem de DESTINO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="1">
     <chartFormat chart="8" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -17495,7 +19823,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="D3:E19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
       <items count="362">
@@ -17903,27 +20231,27 @@
     <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="12">
     <i>
       <x v="5"/>
     </i>
@@ -17934,37 +20262,25 @@
       <x v="12"/>
     </i>
     <i>
+      <x v="3"/>
+    </i>
+    <i>
       <x v="7"/>
     </i>
     <i>
       <x v="9"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="14"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="11"/>
     </i>
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
@@ -17980,29 +20296,11 @@
     <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="10">
+    <format dxfId="252">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="5">
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="3">
     <chartFormat chart="7" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -18866,7 +21164,7 @@
     <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="11">
+    <format dxfId="270">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18893,20 +21191,93 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Meses__DATA_PEDIDO" xr10:uid="{AA13D315-2FF0-4441-BD94-0B3E74A07B9B}" sourceName="Meses (DATA PEDIDO)">
+  <pivotTables>
+    <pivotTable tabId="2" name="Tabela dinâmica6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="754989392">
+      <items count="14">
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="4"/>
+        <i x="5" s="1"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="12"/>
+        <i x="0" nd="1"/>
+        <i x="13" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Meses__DATA_PEDIDO1" xr10:uid="{F5934583-AC06-44C2-8093-63DB3EEB9DB5}" sourceName="Meses (DATA PEDIDO)">
+  <pivotTables>
+    <pivotTable tabId="2" name="Tabela dinâmica8"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="754989392">
+      <items count="14">
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="4"/>
+        <i x="5"/>
+        <i x="6"/>
+        <i x="7" s="1"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="12"/>
+        <i x="0" nd="1"/>
+        <i x="13" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Meses (DATA PEDIDO)" xr10:uid="{07E9F03C-CDBF-42F3-8AC4-E6A26B18091B}" cache="SegmentaçãodeDados_Meses__DATA_PEDIDO" caption="Meses (DATA PEDIDO)" columnCount="2" showCaption="0" rowHeight="288000"/>
+  <slicer name="Meses (DATA PEDIDO) 1" xr10:uid="{E410200E-E48F-4DF9-A49A-6E991D85098B}" cache="SegmentaçãodeDados_Meses__DATA_PEDIDO1" caption="Meses (DATA PEDIDO)" showCaption="0" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71B9CEFD-3E22-47F1-A443-299690959030}" name="Tabela1" displayName="Tabela1" ref="A1:J904" totalsRowShown="0">
   <autoFilter ref="A1:J904" xr:uid="{71B9CEFD-3E22-47F1-A443-299690959030}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DE1F5F38-F352-4040-85B7-A3B3451FFB5F}" name="DATA PEDIDO" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{DE1F5F38-F352-4040-85B7-A3B3451FFB5F}" name="DATA PEDIDO" dataDxfId="276"/>
     <tableColumn id="2" xr3:uid="{2814A6F9-DD47-4848-8B5C-98F099CAD244}" name="NÚMERO PEDIDO"/>
     <tableColumn id="3" xr3:uid="{1354172A-8F40-41B5-8399-A5334DCACF94}" name="PRODUTO"/>
-    <tableColumn id="4" xr3:uid="{E3E86039-D1B6-4FE0-A064-3E959C949B73}" name="VENDA" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E72999F6-1752-4514-8DE7-DFDAE4E517F2}" name="FRETE" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{EC491BA0-7D56-440A-A87F-59E1A4F7B5FB}" name="TOTAL GERAL" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E3E86039-D1B6-4FE0-A064-3E959C949B73}" name="VENDA" dataDxfId="275"/>
+    <tableColumn id="5" xr3:uid="{E72999F6-1752-4514-8DE7-DFDAE4E517F2}" name="FRETE" dataDxfId="274"/>
+    <tableColumn id="6" xr3:uid="{EC491BA0-7D56-440A-A87F-59E1A4F7B5FB}" name="TOTAL GERAL" dataDxfId="273"/>
     <tableColumn id="7" xr3:uid="{AE96D88E-7F26-4E49-8C75-8C20B9D10FA6}" name="DESTINO"/>
     <tableColumn id="8" xr3:uid="{C90706A0-95C3-4D9E-AF5C-94EF1D600F67}" name="PRAZO ENTREGA"/>
-    <tableColumn id="9" xr3:uid="{9E60CC13-9E3B-4271-ADBA-4BBF7C54419A}" name="DATA ENTREGA" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{75BD6FEC-BA4B-45AC-B83F-08CCE65A1256}" name="STATUS ENTREGA" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{9E60CC13-9E3B-4271-ADBA-4BBF7C54419A}" name="DATA ENTREGA" dataDxfId="272"/>
+    <tableColumn id="10" xr3:uid="{75BD6FEC-BA4B-45AC-B83F-08CCE65A1256}" name="STATUS ENTREGA" dataDxfId="271">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[DATA ENTREGA]]&gt;(Tabela1[[#This Row],[DATA PEDIDO]]+Tabela1[[#This Row],[PRAZO ENTREGA]]),"ENTREGA ATRASADA","ENTREGA NO PRAZO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -49074,15 +51445,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1A3585-5829-4BEA-9324-C8BAF2A31307}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
@@ -49102,11 +51473,11 @@
       </c>
       <c r="K1">
         <f>GETPIVOTDATA("STATUS ENTREGA",$J$3,"STATUS ENTREGA","ENTREGA ATRASADA")</f>
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="L1">
         <f>GETPIVOTDATA("STATUS ENTREGA",$J$3,"STATUS ENTREGA","ENTREGA NO PRAZO")</f>
-        <v>653</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -49147,7 +51518,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="6">
-        <v>348821.48000000004</v>
+        <v>30823.35</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -49176,7 +51547,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="6">
-        <v>165250.50999999998</v>
+        <v>19876.59</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>34</v>
@@ -49185,13 +51556,13 @@
         <v>38</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K5" s="9">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="9">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -49205,7 +51576,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="6">
-        <v>126077.64000000001</v>
+        <v>7583.72</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>46</v>
@@ -49214,13 +51585,13 @@
         <v>37</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K6" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L6" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -49231,25 +51602,16 @@
         <v>72692.259999999995</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6">
-        <v>67754.400000000009</v>
+        <v>5909.7</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="5">
         <v>33</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="9">
-        <v>23</v>
-      </c>
-      <c r="L7" s="9">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -49260,25 +51622,16 @@
         <v>77998.940000000031</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6">
-        <v>54663.209999999985</v>
+        <v>4525.12</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="5">
         <v>32</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="9">
-        <v>19</v>
-      </c>
-      <c r="L8" s="9">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -49289,25 +51642,16 @@
         <v>61740.87999999999</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E9" s="6">
-        <v>45272.470000000008</v>
+        <v>2977.83</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="5">
         <v>33</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="9">
-        <v>21</v>
-      </c>
-      <c r="L9" s="9">
-        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -49321,22 +51665,13 @@
         <v>15</v>
       </c>
       <c r="E10" s="6">
-        <v>38563.499999999985</v>
+        <v>2558.67</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="5">
         <v>34</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="9">
-        <v>23</v>
-      </c>
-      <c r="L10" s="9">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -49347,25 +51682,16 @@
         <v>69292.98000000001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E11" s="6">
-        <v>35007.929999999993</v>
+        <v>1974.0900000000001</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
       <c r="H11" s="5">
         <v>33</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="9">
-        <v>25</v>
-      </c>
-      <c r="L11" s="9">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -49376,25 +51702,16 @@
         <v>92291.669999999984</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E12" s="6">
-        <v>16482.510000000002</v>
+        <v>1107.78</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="H12" s="5">
         <v>37</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="9">
-        <v>17</v>
-      </c>
-      <c r="L12" s="9">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -49405,25 +51722,16 @@
         <v>93344.66</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6">
-        <v>13451.020000000008</v>
+        <v>554.81999999999994</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="5">
         <v>34</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="9">
-        <v>18</v>
-      </c>
-      <c r="L13" s="9">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -49434,25 +51742,16 @@
         <v>81900.049999999988</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E14" s="6">
-        <v>7454.9500000000007</v>
+        <v>107.27</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="5">
         <v>35</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="9">
-        <v>29</v>
-      </c>
-      <c r="L14" s="9">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -49463,25 +51762,16 @@
         <v>79071.299999999988</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6">
-        <v>5237.5499999999993</v>
+        <v>77998.94</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="5">
         <v>33</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="9">
-        <v>12</v>
-      </c>
-      <c r="L15" s="9">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -49491,58 +51781,22 @@
       <c r="B16" s="6">
         <v>933927.81</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3632.43</v>
-      </c>
       <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H16" s="5">
         <v>35</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="9">
-        <v>22</v>
-      </c>
-      <c r="L16" s="9">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3131.9900000000002</v>
-      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="5">
         <v>35</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K17" s="9">
-        <v>250</v>
-      </c>
-      <c r="L17" s="9">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3126.22</v>
-      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
@@ -49550,13 +51804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="6">
-        <v>933927.81</v>
-      </c>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
@@ -49564,7 +51812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
@@ -49572,7 +51820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
@@ -49580,7 +51828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
@@ -49588,7 +51836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
@@ -49596,7 +51844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
@@ -49604,7 +51852,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
@@ -49612,7 +51860,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G26" s="4" t="s">
         <v>27</v>
       </c>
@@ -49620,7 +51868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>26</v>
       </c>
@@ -49628,7 +51876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
@@ -49636,7 +51884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>48</v>
       </c>
@@ -49644,7 +51892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G30" s="4" t="s">
         <v>52</v>
       </c>
@@ -49661,13 +51909,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C1473B-4571-40D5-82DC-790682A30B55}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Dashboard_vendas.xlsx
+++ b/Dashboard_vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Dashboard_Execel_Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5A6A80-DFD4-47F9-91D0-D8E830B7A1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5D2B5-B5B3-413A-8756-874E10D9923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{55A8B278-183D-4BD7-99BB-5CAD9EA099C4}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,18 +316,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="277">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -361,780 +354,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1200,12 +419,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1213,14 +429,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Faturamento</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Faturamento por Mês</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> por Mês</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1237,12 +448,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1294,7 +502,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -1360,7 +568,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -1426,18 +634,13 @@
             </a:effectLst>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1514,18 +717,13 @@
               </a:effectLst>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1701,12 +899,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1761,11 +956,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="accent1">
-          <a:alpha val="76000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1792,7 +985,14 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -2374,6 +1574,14 @@
         </a:prstClr>
       </a:outerShdw>
     </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="63500" h="63500"/>
+      <a:bevelB w="0" h="0"/>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -3024,6 +2232,14 @@
       <a:round/>
     </a:ln>
     <a:effectLst/>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="63500" h="63500"/>
+      <a:bevelB w="0" h="0"/>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -3082,12 +2298,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3096,13 +2309,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Entregas no Prazo</a:t>
+              <a:t>Entregas no Prazo x Em Atraso</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> x Em Atraso</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3119,12 +2327,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3141,12 +2346,10 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3169,7 +2372,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -3202,10 +2405,8 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3228,7 +2429,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -3259,12 +2460,10 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3287,7 +2486,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -3320,10 +2519,8 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3346,7 +2543,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="75000"/>
@@ -3377,12 +2574,10 @@
         <c:idx val="4"/>
         <c:spPr>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3399,18 +2594,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3438,10 +2628,8 @@
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
-          <a:ln w="38100">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3458,18 +2646,13 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3514,12 +2697,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3533,18 +2714,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3627,12 +2803,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3646,18 +2820,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3766,12 +2935,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3826,12 +2992,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3857,9 +3020,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1"/>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3870,13 +3033,28 @@
         </a:prstClr>
       </a:outerShdw>
     </a:effectLst>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT w="63500" h="63500"/>
+      <a:bevelB w="0" h="0"/>
+    </a:sp3d>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -6331,6 +5509,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="r"/>
             <a:t>Tocantins</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3000" b="1"/>
@@ -6493,6 +5672,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="r"/>
             <a:t>25</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
@@ -6664,6 +5844,7 @@
               <a:ea typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="r"/>
             <a:t>50</a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="3200" b="1">
@@ -6919,8 +6100,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>93550</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Meses (DATA PEDIDO)">
@@ -6943,7 +6124,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6997,8 +6178,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="21" name="Meses (DATA PEDIDO) 1">
@@ -7021,7 +6202,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -18757,1592 +17938,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A72C2BF1-7D22-4046-9295-8D27E1AC57FD}" name="Tabela dinâmica8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="J3:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="362">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de STATUS ENTREGA" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="10">
-    <format dxfId="102">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="103">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="104">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="105">
-      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="106">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="107">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="12">
-            <x v="1"/>
-            <x v="2"/>
-            <x v="3"/>
-            <x v="4"/>
-            <x v="5"/>
-            <x v="6"/>
-            <x v="7"/>
-            <x v="8"/>
-            <x v="9"/>
-            <x v="10"/>
-            <x v="11"/>
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="110">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="13" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="9" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="G3:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="362">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="27">
-        <item x="0"/>
-        <item x="13"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="27">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de DESTINO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="362">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="16">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="252">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B99AEA78-DE77-4C57-A63D-B977D064B100}" name="Tabela dinâmica5" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B99AEA78-DE77-4C57-A63D-B977D064B100}" name="Tabela dinâmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
@@ -21164,12 +18760,1597 @@
     <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="270">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <chartFormats count="1">
     <chartFormat chart="6" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A72C2BF1-7D22-4046-9295-8D27E1AC57FD}" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="J3:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="362">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de STATUS ENTREGA" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="10">
+    <format dxfId="10">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="12">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="4"/>
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="13" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="G3:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="362">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="27">
+        <item x="0"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de DESTINO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="362">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="16">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21268,16 +20449,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71B9CEFD-3E22-47F1-A443-299690959030}" name="Tabela1" displayName="Tabela1" ref="A1:J904" totalsRowShown="0">
   <autoFilter ref="A1:J904" xr:uid="{71B9CEFD-3E22-47F1-A443-299690959030}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DE1F5F38-F352-4040-85B7-A3B3451FFB5F}" name="DATA PEDIDO" dataDxfId="276"/>
+    <tableColumn id="1" xr3:uid="{DE1F5F38-F352-4040-85B7-A3B3451FFB5F}" name="DATA PEDIDO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{2814A6F9-DD47-4848-8B5C-98F099CAD244}" name="NÚMERO PEDIDO"/>
     <tableColumn id="3" xr3:uid="{1354172A-8F40-41B5-8399-A5334DCACF94}" name="PRODUTO"/>
-    <tableColumn id="4" xr3:uid="{E3E86039-D1B6-4FE0-A064-3E959C949B73}" name="VENDA" dataDxfId="275"/>
-    <tableColumn id="5" xr3:uid="{E72999F6-1752-4514-8DE7-DFDAE4E517F2}" name="FRETE" dataDxfId="274"/>
-    <tableColumn id="6" xr3:uid="{EC491BA0-7D56-440A-A87F-59E1A4F7B5FB}" name="TOTAL GERAL" dataDxfId="273"/>
+    <tableColumn id="4" xr3:uid="{E3E86039-D1B6-4FE0-A064-3E959C949B73}" name="VENDA" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{E72999F6-1752-4514-8DE7-DFDAE4E517F2}" name="FRETE" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{EC491BA0-7D56-440A-A87F-59E1A4F7B5FB}" name="TOTAL GERAL" dataDxfId="14"/>
     <tableColumn id="7" xr3:uid="{AE96D88E-7F26-4E49-8C75-8C20B9D10FA6}" name="DESTINO"/>
     <tableColumn id="8" xr3:uid="{C90706A0-95C3-4D9E-AF5C-94EF1D600F67}" name="PRAZO ENTREGA"/>
-    <tableColumn id="9" xr3:uid="{9E60CC13-9E3B-4271-ADBA-4BBF7C54419A}" name="DATA ENTREGA" dataDxfId="272"/>
-    <tableColumn id="10" xr3:uid="{75BD6FEC-BA4B-45AC-B83F-08CCE65A1256}" name="STATUS ENTREGA" dataDxfId="271">
+    <tableColumn id="9" xr3:uid="{9E60CC13-9E3B-4271-ADBA-4BBF7C54419A}" name="DATA ENTREGA" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{75BD6FEC-BA4B-45AC-B83F-08CCE65A1256}" name="STATUS ENTREGA" dataDxfId="12">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[DATA ENTREGA]]&gt;(Tabela1[[#This Row],[DATA PEDIDO]]+Tabela1[[#This Row],[PRAZO ENTREGA]]),"ENTREGA ATRASADA","ENTREGA NO PRAZO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -51499,40 +50680,40 @@
       <c r="H3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>69919.95</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>30823.35</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4">
         <v>38</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -51540,28 +50721,28 @@
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>84582.41</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>19876.59</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5">
         <v>38</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>25</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>50</v>
       </c>
     </row>
@@ -51569,28 +50750,28 @@
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>69642.55</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>7583.72</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6">
         <v>37</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>25</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="7">
         <v>50</v>
       </c>
     </row>
@@ -51598,19 +50779,19 @@
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>72692.259999999995</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>5909.7</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7">
         <v>33</v>
       </c>
     </row>
@@ -51618,19 +50799,19 @@
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>77998.940000000031</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4525.12</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8">
         <v>32</v>
       </c>
     </row>
@@ -51638,19 +50819,19 @@
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>61740.87999999999</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2977.83</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9">
         <v>33</v>
       </c>
     </row>
@@ -51658,19 +50839,19 @@
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>81450.16</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2558.67</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10">
         <v>34</v>
       </c>
     </row>
@@ -51678,19 +50859,19 @@
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>69292.98000000001</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>1974.0900000000001</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11">
         <v>33</v>
       </c>
     </row>
@@ -51698,19 +50879,19 @@
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>92291.669999999984</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>1107.78</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>37</v>
       </c>
     </row>
@@ -51718,19 +50899,19 @@
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>93344.66</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>554.81999999999994</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13">
         <v>34</v>
       </c>
     </row>
@@ -51738,19 +50919,19 @@
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>81900.049999999988</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>107.27</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14">
         <v>35</v>
       </c>
     </row>
@@ -51758,19 +50939,19 @@
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>79071.299999999988</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>77998.94</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>33</v>
       </c>
     </row>
@@ -51778,13 +50959,13 @@
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>933927.81</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>35</v>
       </c>
     </row>
@@ -51792,7 +50973,7 @@
       <c r="G17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>35</v>
       </c>
     </row>
@@ -51800,7 +50981,7 @@
       <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18">
         <v>33</v>
       </c>
     </row>
@@ -51808,7 +50989,7 @@
       <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19">
         <v>36</v>
       </c>
     </row>
@@ -51816,7 +50997,7 @@
       <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20">
         <v>40</v>
       </c>
     </row>
@@ -51824,7 +51005,7 @@
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21">
         <v>31</v>
       </c>
     </row>
@@ -51832,7 +51013,7 @@
       <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22">
         <v>35</v>
       </c>
     </row>
@@ -51840,7 +51021,7 @@
       <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23">
         <v>41</v>
       </c>
     </row>
@@ -51848,7 +51029,7 @@
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24">
         <v>32</v>
       </c>
     </row>
@@ -51856,7 +51037,7 @@
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25">
         <v>36</v>
       </c>
     </row>
@@ -51864,7 +51045,7 @@
       <c r="G26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26">
         <v>35</v>
       </c>
     </row>
@@ -51872,7 +51053,7 @@
       <c r="G27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27">
         <v>33</v>
       </c>
     </row>
@@ -51880,7 +51061,7 @@
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28">
         <v>35</v>
       </c>
     </row>
@@ -51888,7 +51069,7 @@
       <c r="G29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29">
         <v>29</v>
       </c>
     </row>
@@ -51896,7 +51077,7 @@
       <c r="G30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30">
         <v>903</v>
       </c>
     </row>
@@ -51910,12 +51091,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Dashboard_vendas.xlsx
+++ b/Dashboard_vendas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Dashboard_Execel_Vendas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5D2B5-B5B3-413A-8756-874E10D9923E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577EA589-D3AF-4C5F-B71C-9BA2F725A580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{55A8B278-183D-4BD7-99BB-5CAD9EA099C4}"/>
+    <workbookView xWindow="20370" yWindow="-705" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{55A8B278-183D-4BD7-99BB-5CAD9EA099C4}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1882" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="71">
   <si>
     <t>DATA PEDIDO</t>
   </si>
@@ -301,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -317,13 +317,133 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="73">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -357,6 +477,54 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1372,9 +1540,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Análise!$D$4:$D$15</c:f>
+              <c:f>Análise!$D$4:$D$18</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Geladeira</c:v>
                 </c:pt>
@@ -1385,70 +1553,88 @@
                   <c:v>Televisão</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Fogão</c:v>
+                  <c:v>Micro-ondas</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Máquina de lavar louça</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Micro-ondas</c:v>
+                  <c:v>Fogão</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Forno elétrico</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Ventilador</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>Aspirador de pó</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Liquidificador</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Torradeira</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>Cafeteira</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
+                  <c:v>Ferro de passar roupa</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>Secador de cabelo</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Aspirador de pó</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Ferro de passar roupa</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Análise!$E$4:$E$15</c:f>
+              <c:f>Análise!$E$4:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>30823.35</c:v>
+                  <c:v>38011.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19876.59</c:v>
+                  <c:v>19896.759999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7583.72</c:v>
+                  <c:v>12536.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5909.7</c:v>
+                  <c:v>5317.44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4525.12</c:v>
+                  <c:v>4509.0300000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2977.83</c:v>
+                  <c:v>4107.4800000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2558.67</c:v>
+                  <c:v>3431.6299999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1974.0900000000001</c:v>
+                  <c:v>3196.0200000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1107.78</c:v>
+                  <c:v>541.83999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>554.81999999999994</c:v>
+                  <c:v>519.81000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107.27</c:v>
+                  <c:v>426.97</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>378.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>339.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>132.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17938,7 +18124,1080 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B99AEA78-DE77-4C57-A63D-B977D064B100}" name="Tabela dinâmica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="G3:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="362">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
+      <items count="27">
+        <item x="0"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de DESTINO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
+  <location ref="D3:E18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="362">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="16">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="14"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField numFmtId="8" showAll="0"/>
+    <pivotField dataField="1" numFmtId="8" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+        <item h="1" x="13"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="55">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B99AEA78-DE77-4C57-A63D-B977D064B100}" name="Tabela dinâmica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
@@ -18760,7 +20019,7 @@
     <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -18787,8 +20046,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A72C2BF1-7D22-4046-9295-8D27E1AC57FD}" name="Tabela dinâmica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A72C2BF1-7D22-4046-9295-8D27E1AC57FD}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="J3:L6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0">
@@ -19218,25 +20477,25 @@
     <dataField name="Contagem de STATUS ENTREGA" fld="9" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="10">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="63">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="61">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="12">
@@ -19256,17 +20515,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -19308,1070 +20567,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B7AB2BB-5250-496B-8890-50AB9A3DE7E8}" name="Tabela dinâmica7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="G3:H30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="362">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
-      <items count="27">
-        <item x="0"/>
-        <item x="13"/>
-        <item x="22"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="25"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="12"/>
-        <item x="23"/>
-        <item x="5"/>
-        <item x="14"/>
-        <item x="20"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="16"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="27">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de DESTINO" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C082A42B-57B2-44AA-9680-96AEC681F7D5}" name="Tabela dinâmica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
-  <location ref="D3:E15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="362">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="16">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="14"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField numFmtId="8" showAll="0"/>
-    <pivotField dataField="1" numFmtId="8" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de TOTAL GERAL" fld="5" baseField="0" baseItem="0" numFmtId="44"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Meses__DATA_PEDIDO" xr10:uid="{AA13D315-2FF0-4441-BD94-0B3E74A07B9B}" sourceName="Meses (DATA PEDIDO)">
   <pivotTables>
@@ -20384,12 +20579,12 @@
         <i x="2"/>
         <i x="3"/>
         <i x="4"/>
-        <i x="5" s="1"/>
+        <i x="5"/>
         <i x="6"/>
         <i x="7"/>
         <i x="8"/>
         <i x="9"/>
-        <i x="10"/>
+        <i x="10" s="1"/>
         <i x="11"/>
         <i x="12"/>
         <i x="0" nd="1"/>
@@ -20449,16 +20644,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{71B9CEFD-3E22-47F1-A443-299690959030}" name="Tabela1" displayName="Tabela1" ref="A1:J904" totalsRowShown="0">
   <autoFilter ref="A1:J904" xr:uid="{71B9CEFD-3E22-47F1-A443-299690959030}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{DE1F5F38-F352-4040-85B7-A3B3451FFB5F}" name="DATA PEDIDO" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{DE1F5F38-F352-4040-85B7-A3B3451FFB5F}" name="DATA PEDIDO" dataDxfId="72"/>
     <tableColumn id="2" xr3:uid="{2814A6F9-DD47-4848-8B5C-98F099CAD244}" name="NÚMERO PEDIDO"/>
     <tableColumn id="3" xr3:uid="{1354172A-8F40-41B5-8399-A5334DCACF94}" name="PRODUTO"/>
-    <tableColumn id="4" xr3:uid="{E3E86039-D1B6-4FE0-A064-3E959C949B73}" name="VENDA" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{E72999F6-1752-4514-8DE7-DFDAE4E517F2}" name="FRETE" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{EC491BA0-7D56-440A-A87F-59E1A4F7B5FB}" name="TOTAL GERAL" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{E3E86039-D1B6-4FE0-A064-3E959C949B73}" name="VENDA" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{E72999F6-1752-4514-8DE7-DFDAE4E517F2}" name="FRETE" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{EC491BA0-7D56-440A-A87F-59E1A4F7B5FB}" name="TOTAL GERAL" dataDxfId="69"/>
     <tableColumn id="7" xr3:uid="{AE96D88E-7F26-4E49-8C75-8C20B9D10FA6}" name="DESTINO"/>
     <tableColumn id="8" xr3:uid="{C90706A0-95C3-4D9E-AF5C-94EF1D600F67}" name="PRAZO ENTREGA"/>
-    <tableColumn id="9" xr3:uid="{9E60CC13-9E3B-4271-ADBA-4BBF7C54419A}" name="DATA ENTREGA" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{75BD6FEC-BA4B-45AC-B83F-08CCE65A1256}" name="STATUS ENTREGA" dataDxfId="12">
+    <tableColumn id="9" xr3:uid="{9E60CC13-9E3B-4271-ADBA-4BBF7C54419A}" name="DATA ENTREGA" dataDxfId="68"/>
+    <tableColumn id="10" xr3:uid="{75BD6FEC-BA4B-45AC-B83F-08CCE65A1256}" name="STATUS ENTREGA" dataDxfId="67">
       <calculatedColumnFormula>IF(Tabela1[[#This Row],[DATA ENTREGA]]&gt;(Tabela1[[#This Row],[DATA PEDIDO]]+Tabela1[[#This Row],[PRAZO ENTREGA]]),"ENTREGA ATRASADA","ENTREGA NO PRAZO")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -50699,7 +50894,7 @@
         <v>19</v>
       </c>
       <c r="E4" s="5">
-        <v>30823.35</v>
+        <v>38011.25</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -50728,7 +50923,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="5">
-        <v>19876.59</v>
+        <v>19896.759999999998</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>34</v>
@@ -50739,10 +50934,10 @@
       <c r="J5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="9">
         <v>25</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="9">
         <v>50</v>
       </c>
     </row>
@@ -50757,7 +50952,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>7583.72</v>
+        <v>12536.57</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>46</v>
@@ -50768,10 +50963,10 @@
       <c r="J6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <v>25</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="9">
         <v>50</v>
       </c>
     </row>
@@ -50783,10 +50978,10 @@
         <v>72692.259999999995</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E7" s="5">
-        <v>5909.7</v>
+        <v>5317.44</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>38</v>
@@ -50806,7 +51001,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="5">
-        <v>4525.12</v>
+        <v>4509.0300000000007</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>28</v>
@@ -50823,10 +51018,10 @@
         <v>61740.87999999999</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5">
-        <v>2977.83</v>
+        <v>4107.4800000000005</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>40</v>
@@ -50843,10 +51038,10 @@
         <v>81450.16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E10" s="5">
-        <v>2558.67</v>
+        <v>3431.6299999999997</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>41</v>
@@ -50863,10 +51058,10 @@
         <v>69292.98000000001</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>1974.0900000000001</v>
+        <v>3196.0200000000004</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>49</v>
@@ -50883,10 +51078,10 @@
         <v>92291.669999999984</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5">
-        <v>1107.78</v>
+        <v>541.83999999999992</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>43</v>
@@ -50903,10 +51098,10 @@
         <v>93344.66</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5">
-        <v>554.81999999999994</v>
+        <v>519.81000000000006</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>31</v>
@@ -50923,10 +51118,10 @@
         <v>81900.049999999988</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5">
-        <v>107.27</v>
+        <v>426.97</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>45</v>
@@ -50943,10 +51138,10 @@
         <v>79071.299999999988</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>77998.94</v>
+        <v>378.01</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>32</v>
@@ -50962,6 +51157,12 @@
       <c r="B16" s="5">
         <v>933927.81</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5">
+        <v>339.79</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
@@ -50969,7 +51170,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="5">
+        <v>132.06</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>23</v>
       </c>
@@ -50977,7 +51184,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5">
+        <v>93344.659999999989</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>37</v>
       </c>
@@ -50985,7 +51198,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
@@ -50993,7 +51206,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G20" s="4" t="s">
         <v>30</v>
       </c>
@@ -51001,7 +51214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G21" s="4" t="s">
         <v>21</v>
       </c>
@@ -51009,7 +51222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G22" s="4" t="s">
         <v>12</v>
       </c>
@@ -51017,7 +51230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
@@ -51025,7 +51238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G24" s="4" t="s">
         <v>16</v>
       </c>
@@ -51033,7 +51246,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G25" s="4" t="s">
         <v>39</v>
       </c>
@@ -51041,7 +51254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G26" s="4" t="s">
         <v>27</v>
       </c>
@@ -51049,7 +51262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G27" s="4" t="s">
         <v>26</v>
       </c>
@@ -51057,7 +51270,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G28" s="4" t="s">
         <v>24</v>
       </c>
@@ -51065,7 +51278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G29" s="4" t="s">
         <v>48</v>
       </c>
@@ -51073,7 +51286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="G30" s="4" t="s">
         <v>52</v>
       </c>
